--- a/docs/StructureDefinition-VAMicroLabReport.xlsx
+++ b/docs/StructureDefinition-VAMicroLabReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="306">
   <si>
     <t>Path</t>
   </si>
@@ -326,21 +326,21 @@
     <t>DiagnosticReport.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -349,17 +349,10 @@
     <t>DiagnosticReport.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -727,9 +720,6 @@
   </si>
   <si>
     <t>DiagnosticReport.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -2109,7 +2099,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2128,15 +2118,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2173,14 +2165,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>104</v>
@@ -2207,7 +2201,7 @@
         <v>44</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>44</v>
@@ -2219,7 +2213,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2238,16 +2232,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2297,7 +2291,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2329,11 +2323,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2352,19 +2346,19 @@
         <v>55</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2413,7 +2407,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2431,25 +2425,25 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2468,19 +2462,19 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2529,7 +2523,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2547,13 +2541,13 @@
         <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2561,7 +2555,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2587,16 +2581,16 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>44</v>
@@ -2621,13 +2615,13 @@
         <v>44</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>44</v>
@@ -2645,7 +2639,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>54</v>
@@ -2663,25 +2657,25 @@
         <v>44</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2700,16 +2694,16 @@
         <v>55</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2735,14 +2729,14 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>44</v>
       </c>
@@ -2759,7 +2753,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2780,22 +2774,22 @@
         <v>44</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2814,13 +2808,13 @@
         <v>55</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2847,14 +2841,14 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>44</v>
       </c>
@@ -2871,7 +2865,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>54</v>
@@ -2889,25 +2883,25 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2926,17 +2920,17 @@
         <v>55</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -2985,7 +2979,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3003,25 +2997,25 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3040,19 +3034,19 @@
         <v>55</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3101,7 +3095,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3119,25 +3113,25 @@
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>185</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3156,19 +3150,19 @@
         <v>55</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3217,7 +3211,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3235,28 +3229,28 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>42</v>
@@ -3274,19 +3268,19 @@
         <v>55</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3335,7 +3329,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3350,28 +3344,28 @@
         <v>44</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3390,13 +3384,13 @@
         <v>55</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3447,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3459,27 +3453,27 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3502,13 +3496,13 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3559,7 +3553,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3583,7 +3577,7 @@
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -3591,11 +3585,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3614,16 +3608,16 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3673,7 +3667,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3697,7 +3691,7 @@
         <v>44</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -3705,11 +3699,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3728,16 +3722,16 @@
         <v>55</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3787,7 +3781,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3819,7 +3813,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3842,13 +3836,13 @@
         <v>55</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3875,13 +3869,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -3899,7 +3893,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3917,13 +3911,13 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -3931,7 +3925,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3954,19 +3948,19 @@
         <v>55</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4015,7 +4009,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>54</v>
@@ -4033,13 +4027,13 @@
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4047,7 +4041,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4070,19 +4064,19 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4131,7 +4125,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4152,10 +4146,10 @@
         <v>44</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4163,11 +4157,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4186,17 +4180,17 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4245,7 +4239,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4266,10 +4260,10 @@
         <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4277,7 +4271,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4300,16 +4294,16 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4359,7 +4353,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4383,7 +4377,7 @@
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4391,11 +4385,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4414,17 +4408,17 @@
         <v>55</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4473,7 +4467,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4485,7 +4479,7 @@
         <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>44</v>
@@ -4494,10 +4488,10 @@
         <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4505,7 +4499,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4528,13 +4522,13 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4585,7 +4579,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4609,7 +4603,7 @@
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4617,11 +4611,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4640,16 +4634,16 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4699,7 +4693,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4723,7 +4717,7 @@
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4731,11 +4725,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4754,16 +4748,16 @@
         <v>55</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4813,7 +4807,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4845,7 +4839,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4868,19 +4862,19 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -4929,7 +4923,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4953,7 +4947,7 @@
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -4961,7 +4955,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4984,13 +4978,13 @@
         <v>55</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5041,7 +5035,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>54</v>
@@ -5065,7 +5059,7 @@
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5073,11 +5067,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5096,17 +5090,17 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5155,7 +5149,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5176,10 +5170,10 @@
         <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5187,7 +5181,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5210,13 +5204,13 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5243,13 +5237,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5267,7 +5261,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5288,10 +5282,10 @@
         <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5299,7 +5293,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5322,19 +5316,19 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5383,7 +5377,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5404,10 +5398,10 @@
         <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
